--- a/aggregate_info/aggregate_info_1.xlsx
+++ b/aggregate_info/aggregate_info_1.xlsx
@@ -872,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,438 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ITMO OPEN TALK с Евгением Мутовкиным</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22 Декабря</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Митап</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21 Апреля</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Выездной лагерь МФ Фотоники в рамках &amp;quot;ITMO.Megabattle&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19 Октября - 20 Октября</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Лагерь</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Организатор</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ITMO FAMILY DAY</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18 Июня</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>День открытых дверей Университета ИТМО для будущих бакалавров</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16 Декабря</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>День открытых дверей</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Фестиваль для школьников ITMO.START</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>15 Сентября</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Прикладная оптика 2022</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15 Декабря - 16 Декабря</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>международный</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>IT Conf 2.0: IT в меняющемся мире</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08 Апреля</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Конференция</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Чемпионат Университета ИТМО среди первокурсников по бадминтону</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>07 Октября</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Турнир новичка Университета ИТМО по бадминтону</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>07 Октября</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Соревнование</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>XII Конгресс молодых ученых</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>03 Апреля - 06 Апреля</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Конгресс</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Участие клуба ITMO impact на Epicon 2023</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>02 Июня - 06 Июня</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
